--- a/www.eia.gov/electricity/monthly/xls/table_1_03_a.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_1_03_a.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,12 +22,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="80">
   <si>
     <t>Table 1.3.A. Utility Scale Facility Net Generation</t>
   </si>
   <si>
-    <t>by State, by Sector, October 2016 and 2015 (Thousand Megawatthours)</t>
+    <t>by State, by Sector, November 2016 and 2015 (Thousand Megawatthours)</t>
   </si>
   <si>
     <t/>
@@ -67,10 +67,10 @@
 and State</t>
   </si>
   <si>
-    <t>October 2016</t>
-  </si>
-  <si>
-    <t>October 2015</t>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>November 2015</t>
   </si>
   <si>
     <t>Percentage
@@ -1389,37 +1389,37 @@
         <v>16</v>
       </c>
       <c r="B7" s="10">
-        <v>8005</v>
+        <v>7903</v>
       </c>
       <c r="C7" s="10">
-        <v>7811</v>
+        <v>7906</v>
       </c>
       <c r="D7" s="11">
-        <v>2.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="E7" s="10">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F7" s="10">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="G7" s="10">
-        <v>7614</v>
+        <v>7469</v>
       </c>
       <c r="H7" s="10">
-        <v>7294</v>
+        <v>7405</v>
       </c>
       <c r="I7" s="10">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="J7" s="10">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K7" s="10">
-        <v>176</v>
+        <v>207</v>
       </c>
       <c r="L7" s="10">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1427,13 +1427,13 @@
         <v>17</v>
       </c>
       <c r="B8" s="13">
-        <v>3051</v>
+        <v>3079</v>
       </c>
       <c r="C8" s="13">
-        <v>2622</v>
+        <v>2872</v>
       </c>
       <c r="D8" s="14">
-        <v>0.16400000000000001</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>18</v>
@@ -1442,22 +1442,22 @@
         <v>4</v>
       </c>
       <c r="G8" s="13">
-        <v>2997</v>
+        <v>3011</v>
       </c>
       <c r="H8" s="13">
-        <v>2548</v>
+        <v>2796</v>
       </c>
       <c r="I8" s="13" t="s">
         <v>18</v>
       </c>
       <c r="J8" s="13">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K8" s="13" t="s">
         <v>18</v>
       </c>
       <c r="L8" s="13">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1465,13 +1465,13 @@
         <v>19</v>
       </c>
       <c r="B9" s="13">
-        <v>814</v>
+        <v>769</v>
       </c>
       <c r="C9" s="13">
-        <v>1049</v>
+        <v>981</v>
       </c>
       <c r="D9" s="14">
-        <v>-0.224</v>
+        <v>-0.216</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>18</v>
@@ -1480,22 +1480,22 @@
         <v>0</v>
       </c>
       <c r="G9" s="13">
-        <v>663</v>
+        <v>594</v>
       </c>
       <c r="H9" s="13">
-        <v>855</v>
+        <v>794</v>
       </c>
       <c r="I9" s="13">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J9" s="13">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K9" s="13">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="L9" s="13">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1503,37 +1503,37 @@
         <v>20</v>
       </c>
       <c r="B10" s="13">
-        <v>2108</v>
+        <v>1915</v>
       </c>
       <c r="C10" s="13">
-        <v>2760</v>
+        <v>2101</v>
       </c>
       <c r="D10" s="14">
-        <v>-0.23599999999999999</v>
+        <v>-8.8999999999999996E-2</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>18</v>
       </c>
       <c r="F10" s="13">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G10" s="13">
-        <v>2031</v>
+        <v>1841</v>
       </c>
       <c r="H10" s="13">
-        <v>2665</v>
+        <v>2007</v>
       </c>
       <c r="I10" s="13">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="J10" s="13">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K10" s="13" t="s">
         <v>18</v>
       </c>
       <c r="L10" s="13">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1541,25 +1541,25 @@
         <v>21</v>
       </c>
       <c r="B11" s="13">
-        <v>1477</v>
+        <v>1581</v>
       </c>
       <c r="C11" s="13">
-        <v>742</v>
+        <v>1266</v>
       </c>
       <c r="D11" s="14">
-        <v>0.99</v>
+        <v>0.249</v>
       </c>
       <c r="E11" s="13">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F11" s="13">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="G11" s="13">
-        <v>1430</v>
+        <v>1526</v>
       </c>
       <c r="H11" s="13">
-        <v>666</v>
+        <v>1199</v>
       </c>
       <c r="I11" s="13" t="s">
         <v>18</v>
@@ -1579,25 +1579,25 @@
         <v>22</v>
       </c>
       <c r="B12" s="13">
-        <v>425</v>
+        <v>439</v>
       </c>
       <c r="C12" s="13">
-        <v>495</v>
+        <v>529</v>
       </c>
       <c r="D12" s="14">
-        <v>-0.14299999999999999</v>
+        <v>-0.17</v>
       </c>
       <c r="E12" s="13">
         <v>1</v>
       </c>
       <c r="F12" s="13">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="G12" s="13">
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="H12" s="13">
-        <v>490</v>
+        <v>524</v>
       </c>
       <c r="I12" s="13" t="s">
         <v>18</v>
@@ -1617,31 +1617,31 @@
         <v>23</v>
       </c>
       <c r="B13" s="13">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C13" s="13">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="D13" s="14">
-        <v>-8.6999999999999994E-2</v>
+        <v>-0.24</v>
       </c>
       <c r="E13" s="13">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F13" s="13">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G13" s="13">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="H13" s="13">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="I13" s="13" t="s">
         <v>18</v>
       </c>
       <c r="J13" s="13">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="K13" s="13">
         <v>0</v>
@@ -1655,37 +1655,37 @@
         <v>24</v>
       </c>
       <c r="B14" s="10">
-        <v>32391</v>
+        <v>32419</v>
       </c>
       <c r="C14" s="10">
-        <v>33325</v>
+        <v>32711</v>
       </c>
       <c r="D14" s="11">
-        <v>-2.8000000000000001E-2</v>
+        <v>-8.9999999999999993E-3</v>
       </c>
       <c r="E14" s="10">
-        <v>2500</v>
+        <v>2609</v>
       </c>
       <c r="F14" s="10">
-        <v>2693</v>
+        <v>2776</v>
       </c>
       <c r="G14" s="10">
-        <v>29439</v>
+        <v>29314</v>
       </c>
       <c r="H14" s="10">
-        <v>30076</v>
+        <v>29389</v>
       </c>
       <c r="I14" s="10">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="J14" s="10">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K14" s="10">
-        <v>299</v>
+        <v>339</v>
       </c>
       <c r="L14" s="10">
-        <v>371</v>
+        <v>361</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1693,37 +1693,37 @@
         <v>25</v>
       </c>
       <c r="B15" s="13">
-        <v>6363</v>
+        <v>5582</v>
       </c>
       <c r="C15" s="13">
-        <v>6269</v>
+        <v>5549</v>
       </c>
       <c r="D15" s="14">
-        <v>1.4999999999999999E-2</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="E15" s="13">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F15" s="13">
         <v>3</v>
       </c>
-      <c r="F15" s="13">
-        <v>6</v>
-      </c>
       <c r="G15" s="13">
-        <v>6279</v>
+        <v>5488</v>
       </c>
       <c r="H15" s="13">
-        <v>6149</v>
+        <v>5436</v>
       </c>
       <c r="I15" s="13">
         <v>51</v>
       </c>
       <c r="J15" s="13">
-        <v>53</v>
-      </c>
-      <c r="K15" s="13" t="s">
-        <v>18</v>
+        <v>52</v>
+      </c>
+      <c r="K15" s="13">
+        <v>43</v>
       </c>
       <c r="L15" s="13">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1731,37 +1731,37 @@
         <v>26</v>
       </c>
       <c r="B16" s="13">
-        <v>10397</v>
+        <v>9892</v>
       </c>
       <c r="C16" s="13">
-        <v>11567</v>
+        <v>10775</v>
       </c>
       <c r="D16" s="14">
-        <v>-0.10100000000000001</v>
+        <v>-8.2000000000000003E-2</v>
       </c>
       <c r="E16" s="13">
-        <v>2493</v>
+        <v>2605</v>
       </c>
       <c r="F16" s="13">
-        <v>2684</v>
+        <v>2768</v>
       </c>
       <c r="G16" s="13">
-        <v>7740</v>
+        <v>7117</v>
       </c>
       <c r="H16" s="13">
-        <v>8705</v>
+        <v>7838</v>
       </c>
       <c r="I16" s="13">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="J16" s="13">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="K16" s="13">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L16" s="13">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1769,37 +1769,37 @@
         <v>27</v>
       </c>
       <c r="B17" s="13">
-        <v>15631</v>
+        <v>16945</v>
       </c>
       <c r="C17" s="13">
-        <v>15490</v>
+        <v>16387</v>
       </c>
       <c r="D17" s="14">
-        <v>8.9999999999999993E-3</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="E17" s="13" t="s">
         <v>18</v>
       </c>
       <c r="F17" s="13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G17" s="13">
-        <v>15421</v>
+        <v>16708</v>
       </c>
       <c r="H17" s="13">
-        <v>15222</v>
+        <v>16115</v>
       </c>
       <c r="I17" s="13" t="s">
         <v>18</v>
       </c>
       <c r="J17" s="13">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="K17" s="13">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="L17" s="13">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1807,37 +1807,37 @@
         <v>28</v>
       </c>
       <c r="B18" s="10">
-        <v>44359</v>
+        <v>43209</v>
       </c>
       <c r="C18" s="10">
-        <v>46430</v>
+        <v>44689</v>
       </c>
       <c r="D18" s="11">
-        <v>-4.4999999999999998E-2</v>
+        <v>-3.3000000000000002E-2</v>
       </c>
       <c r="E18" s="10">
-        <v>17780</v>
+        <v>17620</v>
       </c>
       <c r="F18" s="10">
-        <v>19582</v>
+        <v>18478</v>
       </c>
       <c r="G18" s="10">
-        <v>25746</v>
+        <v>24748</v>
       </c>
       <c r="H18" s="10">
-        <v>25893</v>
+        <v>25239</v>
       </c>
       <c r="I18" s="10">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="J18" s="10">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K18" s="10">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="L18" s="10">
-        <v>788</v>
+        <v>807</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1845,37 +1845,37 @@
         <v>29</v>
       </c>
       <c r="B19" s="13">
-        <v>14858</v>
+        <v>13699</v>
       </c>
       <c r="C19" s="13">
-        <v>15635</v>
+        <v>15241</v>
       </c>
       <c r="D19" s="14">
-        <v>-0.05</v>
+        <v>-0.10100000000000001</v>
       </c>
       <c r="E19" s="13">
-        <v>235</v>
+        <v>273</v>
       </c>
       <c r="F19" s="13">
-        <v>215</v>
+        <v>290</v>
       </c>
       <c r="G19" s="13">
-        <v>14413</v>
+        <v>13212</v>
       </c>
       <c r="H19" s="13">
-        <v>15183</v>
+        <v>14693</v>
       </c>
       <c r="I19" s="13">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="J19" s="13">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K19" s="13">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="L19" s="13">
-        <v>199</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1883,37 +1883,37 @@
         <v>30</v>
       </c>
       <c r="B20" s="13">
-        <v>7831</v>
+        <v>7431</v>
       </c>
       <c r="C20" s="13">
-        <v>8007</v>
+        <v>7570</v>
       </c>
       <c r="D20" s="14">
-        <v>-2.1999999999999999E-2</v>
+        <v>-1.7999999999999999E-2</v>
       </c>
       <c r="E20" s="13">
-        <v>6886</v>
+        <v>6202</v>
       </c>
       <c r="F20" s="13">
-        <v>6454</v>
+        <v>5925</v>
       </c>
       <c r="G20" s="13">
-        <v>711</v>
+        <v>996</v>
       </c>
       <c r="H20" s="13">
-        <v>1271</v>
+        <v>1366</v>
       </c>
       <c r="I20" s="13">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J20" s="13">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K20" s="13">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="L20" s="13">
-        <v>262</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1921,37 +1921,37 @@
         <v>31</v>
       </c>
       <c r="B21" s="13">
-        <v>8072</v>
+        <v>8228</v>
       </c>
       <c r="C21" s="13">
-        <v>8620</v>
+        <v>8982</v>
       </c>
       <c r="D21" s="14">
-        <v>-6.4000000000000001E-2</v>
+        <v>-8.4000000000000005E-2</v>
       </c>
       <c r="E21" s="13">
-        <v>5433</v>
+        <v>5332</v>
       </c>
       <c r="F21" s="13">
-        <v>6639</v>
+        <v>6731</v>
       </c>
       <c r="G21" s="13">
-        <v>2443</v>
+        <v>2694</v>
       </c>
       <c r="H21" s="13">
-        <v>1790</v>
+        <v>2062</v>
       </c>
       <c r="I21" s="13">
         <v>78</v>
       </c>
       <c r="J21" s="13">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K21" s="13">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="L21" s="13">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1959,37 +1959,37 @@
         <v>32</v>
       </c>
       <c r="B22" s="13">
-        <v>9059</v>
+        <v>9024</v>
       </c>
       <c r="C22" s="13">
-        <v>9273</v>
+        <v>7905</v>
       </c>
       <c r="D22" s="14">
-        <v>-2.3E-2</v>
+        <v>0.14199999999999999</v>
       </c>
       <c r="E22" s="13">
-        <v>1879</v>
+        <v>2141</v>
       </c>
       <c r="F22" s="13">
-        <v>2177</v>
+        <v>1694</v>
       </c>
       <c r="G22" s="13">
-        <v>7120</v>
+        <v>6820</v>
       </c>
       <c r="H22" s="13">
-        <v>7009</v>
+        <v>6128</v>
       </c>
       <c r="I22" s="13" t="s">
         <v>18</v>
       </c>
       <c r="J22" s="13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K22" s="13">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L22" s="13">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -1997,37 +1997,37 @@
         <v>33</v>
       </c>
       <c r="B23" s="13">
-        <v>4539</v>
+        <v>4828</v>
       </c>
       <c r="C23" s="13">
-        <v>4894</v>
+        <v>4992</v>
       </c>
       <c r="D23" s="14">
-        <v>-7.1999999999999995E-2</v>
+        <v>-3.3000000000000002E-2</v>
       </c>
       <c r="E23" s="13">
-        <v>3348</v>
+        <v>3672</v>
       </c>
       <c r="F23" s="13">
-        <v>4097</v>
+        <v>3838</v>
       </c>
       <c r="G23" s="13">
-        <v>1059</v>
+        <v>1026</v>
       </c>
       <c r="H23" s="13">
-        <v>639</v>
+        <v>990</v>
       </c>
       <c r="I23" s="13" t="s">
         <v>18</v>
       </c>
       <c r="J23" s="13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K23" s="13">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="L23" s="13">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -2035,37 +2035,37 @@
         <v>34</v>
       </c>
       <c r="B24" s="10">
-        <v>24131</v>
+        <v>24324</v>
       </c>
       <c r="C24" s="10">
-        <v>25972</v>
+        <v>24430</v>
       </c>
       <c r="D24" s="11">
-        <v>-7.0999999999999994E-2</v>
+        <v>-4.0000000000000001E-3</v>
       </c>
       <c r="E24" s="10">
-        <v>19845</v>
+        <v>19664</v>
       </c>
       <c r="F24" s="10">
-        <v>21942</v>
+        <v>19781</v>
       </c>
       <c r="G24" s="10">
-        <v>3911</v>
+        <v>4304</v>
       </c>
       <c r="H24" s="10">
-        <v>3634</v>
+        <v>4254</v>
       </c>
       <c r="I24" s="10">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J24" s="10">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="K24" s="10">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="L24" s="10">
-        <v>347</v>
+        <v>355</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -2073,25 +2073,25 @@
         <v>35</v>
       </c>
       <c r="B25" s="13">
-        <v>4253</v>
+        <v>4240</v>
       </c>
       <c r="C25" s="13">
-        <v>4294</v>
+        <v>3981</v>
       </c>
       <c r="D25" s="14">
-        <v>-8.9999999999999993E-3</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="E25" s="13">
-        <v>3407</v>
+        <v>2938</v>
       </c>
       <c r="F25" s="13">
-        <v>2975</v>
+        <v>2568</v>
       </c>
       <c r="G25" s="13">
-        <v>666</v>
+        <v>1132</v>
       </c>
       <c r="H25" s="13">
-        <v>1127</v>
+        <v>1219</v>
       </c>
       <c r="I25" s="13" t="s">
         <v>18</v>
@@ -2100,10 +2100,10 @@
         <v>17</v>
       </c>
       <c r="K25" s="13">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="L25" s="13">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -2111,25 +2111,25 @@
         <v>36</v>
       </c>
       <c r="B26" s="13">
-        <v>3274</v>
+        <v>3278</v>
       </c>
       <c r="C26" s="13">
-        <v>3613</v>
+        <v>3254</v>
       </c>
       <c r="D26" s="14">
-        <v>-9.4E-2</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="E26" s="13">
-        <v>1938</v>
+        <v>2107</v>
       </c>
       <c r="F26" s="13">
-        <v>2792</v>
+        <v>2180</v>
       </c>
       <c r="G26" s="13">
-        <v>1327</v>
+        <v>1164</v>
       </c>
       <c r="H26" s="13">
-        <v>820</v>
+        <v>1072</v>
       </c>
       <c r="I26" s="13">
         <v>0</v>
@@ -2141,7 +2141,7 @@
         <v>18</v>
       </c>
       <c r="L26" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -2149,37 +2149,37 @@
         <v>37</v>
       </c>
       <c r="B27" s="13">
-        <v>4595</v>
+        <v>4812</v>
       </c>
       <c r="C27" s="13">
-        <v>4539</v>
+        <v>4582</v>
       </c>
       <c r="D27" s="14">
-        <v>1.2E-2</v>
+        <v>0.05</v>
       </c>
       <c r="E27" s="13">
-        <v>3550</v>
+        <v>3766</v>
       </c>
       <c r="F27" s="13">
-        <v>3642</v>
+        <v>3477</v>
       </c>
       <c r="G27" s="13">
-        <v>912</v>
+        <v>921</v>
       </c>
       <c r="H27" s="13">
-        <v>759</v>
-      </c>
-      <c r="I27" s="13">
-        <v>17</v>
+        <v>954</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="J27" s="13">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K27" s="13">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="L27" s="13">
-        <v>123</v>
+        <v>136</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -2187,31 +2187,31 @@
         <v>38</v>
       </c>
       <c r="B28" s="13">
-        <v>5445</v>
+        <v>5358</v>
       </c>
       <c r="C28" s="13">
-        <v>6320</v>
+        <v>5831</v>
       </c>
       <c r="D28" s="14">
-        <v>-0.13800000000000001</v>
+        <v>-8.1000000000000003E-2</v>
       </c>
       <c r="E28" s="13">
-        <v>5315</v>
+        <v>5188</v>
       </c>
       <c r="F28" s="13">
-        <v>6175</v>
+        <v>5611</v>
       </c>
       <c r="G28" s="13">
-        <v>108</v>
+        <v>151</v>
       </c>
       <c r="H28" s="13">
-        <v>125</v>
+        <v>210</v>
       </c>
       <c r="I28" s="13">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J28" s="13">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="K28" s="13" t="s">
         <v>18</v>
@@ -2225,37 +2225,37 @@
         <v>39</v>
       </c>
       <c r="B29" s="13">
-        <v>2693</v>
+        <v>2706</v>
       </c>
       <c r="C29" s="13">
-        <v>3323</v>
+        <v>3028</v>
       </c>
       <c r="D29" s="14">
-        <v>-0.19</v>
+        <v>-0.106</v>
       </c>
       <c r="E29" s="13">
-        <v>2357</v>
+        <v>2368</v>
       </c>
       <c r="F29" s="13">
-        <v>3041</v>
+        <v>2706</v>
       </c>
       <c r="G29" s="13">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H29" s="13">
-        <v>250</v>
+        <v>296</v>
       </c>
       <c r="I29" s="13" t="s">
         <v>18</v>
       </c>
       <c r="J29" s="13">
-        <v>1</v>
-      </c>
-      <c r="K29" s="13" t="s">
-        <v>18</v>
+        <v>2</v>
+      </c>
+      <c r="K29" s="13">
+        <v>23</v>
       </c>
       <c r="L29" s="13">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -2263,25 +2263,25 @@
         <v>40</v>
       </c>
       <c r="B30" s="13">
-        <v>3220</v>
+        <v>3069</v>
       </c>
       <c r="C30" s="13">
-        <v>3003</v>
+        <v>2914</v>
       </c>
       <c r="D30" s="14">
-        <v>7.1999999999999995E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="E30" s="13">
-        <v>2822</v>
+        <v>2634</v>
       </c>
       <c r="F30" s="13">
-        <v>2591</v>
+        <v>2561</v>
       </c>
       <c r="G30" s="13">
-        <v>388</v>
+        <v>424</v>
       </c>
       <c r="H30" s="13">
-        <v>398</v>
+        <v>340</v>
       </c>
       <c r="I30" s="13" t="s">
         <v>18</v>
@@ -2293,7 +2293,7 @@
         <v>18</v>
       </c>
       <c r="L30" s="13">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -2301,25 +2301,25 @@
         <v>41</v>
       </c>
       <c r="B31" s="13">
-        <v>651</v>
+        <v>862</v>
       </c>
       <c r="C31" s="13">
-        <v>881</v>
+        <v>840</v>
       </c>
       <c r="D31" s="14">
-        <v>-0.26100000000000001</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="E31" s="13">
-        <v>456</v>
+        <v>664</v>
       </c>
       <c r="F31" s="13">
-        <v>725</v>
+        <v>678</v>
       </c>
       <c r="G31" s="13">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="H31" s="13">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="I31" s="13" t="s">
         <v>18</v>
@@ -2339,37 +2339,37 @@
         <v>42</v>
       </c>
       <c r="B32" s="10">
-        <v>60861</v>
+        <v>56608</v>
       </c>
       <c r="C32" s="10">
-        <v>56620</v>
+        <v>57231</v>
       </c>
       <c r="D32" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>-1.0999999999999999E-2</v>
       </c>
       <c r="E32" s="10">
-        <v>50172</v>
+        <v>47537</v>
       </c>
       <c r="F32" s="10">
-        <v>47231</v>
+        <v>47315</v>
       </c>
       <c r="G32" s="10">
-        <v>9069</v>
+        <v>7439</v>
       </c>
       <c r="H32" s="10">
-        <v>7761</v>
+        <v>8265</v>
       </c>
       <c r="I32" s="10">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="J32" s="10">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="K32" s="10">
-        <v>1525</v>
+        <v>1529</v>
       </c>
       <c r="L32" s="10">
-        <v>1525</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -2377,13 +2377,13 @@
         <v>43</v>
       </c>
       <c r="B33" s="13">
-        <v>786</v>
+        <v>557</v>
       </c>
       <c r="C33" s="13">
-        <v>483</v>
+        <v>422</v>
       </c>
       <c r="D33" s="14">
-        <v>0.627</v>
+        <v>0.31900000000000001</v>
       </c>
       <c r="E33" s="13" t="s">
         <v>18</v>
@@ -2392,10 +2392,10 @@
         <v>3</v>
       </c>
       <c r="G33" s="13">
-        <v>665</v>
+        <v>449</v>
       </c>
       <c r="H33" s="13">
-        <v>425</v>
+        <v>329</v>
       </c>
       <c r="I33" s="13" t="s">
         <v>18</v>
@@ -2404,10 +2404,10 @@
         <v>1</v>
       </c>
       <c r="K33" s="13">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="L33" s="13">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -2453,25 +2453,25 @@
         <v>45</v>
       </c>
       <c r="B35" s="13">
-        <v>19230</v>
+        <v>16411</v>
       </c>
       <c r="C35" s="13">
-        <v>19305</v>
+        <v>17965</v>
       </c>
       <c r="D35" s="14">
-        <v>-4.0000000000000001E-3</v>
+        <v>-8.5999999999999993E-2</v>
       </c>
       <c r="E35" s="13">
-        <v>17666</v>
+        <v>14963</v>
       </c>
       <c r="F35" s="13">
-        <v>17512</v>
+        <v>16216</v>
       </c>
       <c r="G35" s="13">
-        <v>1156</v>
+        <v>1011</v>
       </c>
       <c r="H35" s="13">
-        <v>1321</v>
+        <v>1341</v>
       </c>
       <c r="I35" s="13" t="s">
         <v>18</v>
@@ -2480,10 +2480,10 @@
         <v>7</v>
       </c>
       <c r="K35" s="13">
-        <v>400</v>
+        <v>430</v>
       </c>
       <c r="L35" s="13">
-        <v>465</v>
+        <v>401</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -2491,25 +2491,25 @@
         <v>46</v>
       </c>
       <c r="B36" s="13">
-        <v>10170</v>
+        <v>9284</v>
       </c>
       <c r="C36" s="13">
-        <v>8803</v>
+        <v>9160</v>
       </c>
       <c r="D36" s="14">
-        <v>0.155</v>
+        <v>1.4E-2</v>
       </c>
       <c r="E36" s="13">
-        <v>9032</v>
+        <v>8247</v>
       </c>
       <c r="F36" s="13">
-        <v>7139</v>
+        <v>7667</v>
       </c>
       <c r="G36" s="13">
-        <v>735</v>
+        <v>612</v>
       </c>
       <c r="H36" s="13">
-        <v>1234</v>
+        <v>1057</v>
       </c>
       <c r="I36" s="13" t="s">
         <v>18</v>
@@ -2518,10 +2518,10 @@
         <v>1</v>
       </c>
       <c r="K36" s="13">
-        <v>402</v>
+        <v>423</v>
       </c>
       <c r="L36" s="13">
-        <v>429</v>
+        <v>435</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -2529,13 +2529,13 @@
         <v>47</v>
       </c>
       <c r="B37" s="13">
-        <v>3013</v>
+        <v>2224</v>
       </c>
       <c r="C37" s="13">
-        <v>2642</v>
+        <v>2494</v>
       </c>
       <c r="D37" s="14">
-        <v>0.14099999999999999</v>
+        <v>-0.108</v>
       </c>
       <c r="E37" s="13">
         <v>2</v>
@@ -2544,22 +2544,22 @@
         <v>1</v>
       </c>
       <c r="G37" s="13">
-        <v>2960</v>
+        <v>2163</v>
       </c>
       <c r="H37" s="13">
-        <v>2589</v>
+        <v>2435</v>
       </c>
       <c r="I37" s="13" t="s">
         <v>18</v>
       </c>
       <c r="J37" s="13">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K37" s="13">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L37" s="13">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -2567,37 +2567,37 @@
         <v>48</v>
       </c>
       <c r="B38" s="13">
-        <v>9184</v>
+        <v>8941</v>
       </c>
       <c r="C38" s="13">
-        <v>9045</v>
+        <v>9349</v>
       </c>
       <c r="D38" s="14">
-        <v>1.4999999999999999E-2</v>
+        <v>-4.3999999999999997E-2</v>
       </c>
       <c r="E38" s="13">
-        <v>8125</v>
+        <v>8211</v>
       </c>
       <c r="F38" s="13">
-        <v>8376</v>
+        <v>8779</v>
       </c>
       <c r="G38" s="13">
-        <v>879</v>
+        <v>553</v>
       </c>
       <c r="H38" s="13">
-        <v>492</v>
+        <v>377</v>
       </c>
       <c r="I38" s="13">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J38" s="13">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="K38" s="13">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="L38" s="13">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -2605,37 +2605,37 @@
         <v>49</v>
       </c>
       <c r="B39" s="13">
-        <v>7294</v>
+        <v>7318</v>
       </c>
       <c r="C39" s="13">
-        <v>7214</v>
+        <v>6969</v>
       </c>
       <c r="D39" s="14">
-        <v>1.0999999999999999E-2</v>
+        <v>0.05</v>
       </c>
       <c r="E39" s="13">
-        <v>6953</v>
+        <v>6660</v>
       </c>
       <c r="F39" s="13">
-        <v>6997</v>
+        <v>6614</v>
       </c>
       <c r="G39" s="13">
-        <v>189</v>
+        <v>526</v>
       </c>
       <c r="H39" s="13">
-        <v>110</v>
+        <v>242</v>
       </c>
       <c r="I39" s="13" t="s">
         <v>18</v>
       </c>
       <c r="J39" s="13">
-        <v>0.39</v>
+        <v>1</v>
       </c>
       <c r="K39" s="13">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="L39" s="13">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -2643,37 +2643,37 @@
         <v>50</v>
       </c>
       <c r="B40" s="13">
-        <v>5848</v>
+        <v>6522</v>
       </c>
       <c r="C40" s="13">
-        <v>5299</v>
+        <v>5557</v>
       </c>
       <c r="D40" s="14">
-        <v>0.104</v>
+        <v>0.17399999999999999</v>
       </c>
       <c r="E40" s="13">
-        <v>4546</v>
+        <v>5440</v>
       </c>
       <c r="F40" s="13">
-        <v>4362</v>
+        <v>4036</v>
       </c>
       <c r="G40" s="13">
-        <v>1068</v>
+        <v>849</v>
       </c>
       <c r="H40" s="13">
-        <v>681</v>
+        <v>1265</v>
       </c>
       <c r="I40" s="13">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J40" s="13">
         <v>39</v>
       </c>
       <c r="K40" s="13">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="L40" s="13">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -2681,25 +2681,25 @@
         <v>51</v>
       </c>
       <c r="B41" s="13">
-        <v>5332</v>
+        <v>5346</v>
       </c>
       <c r="C41" s="13">
-        <v>3822</v>
+        <v>5309</v>
       </c>
       <c r="D41" s="14">
-        <v>0.39500000000000002</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="E41" s="13">
-        <v>3844</v>
+        <v>4010</v>
       </c>
       <c r="F41" s="13">
-        <v>2841</v>
+        <v>3999</v>
       </c>
       <c r="G41" s="13">
-        <v>1417</v>
+        <v>1275</v>
       </c>
       <c r="H41" s="13">
-        <v>903</v>
+        <v>1215</v>
       </c>
       <c r="I41" s="13">
         <v>0</v>
@@ -2708,10 +2708,10 @@
         <v>0</v>
       </c>
       <c r="K41" s="13">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="L41" s="13">
-        <v>78</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -2719,37 +2719,37 @@
         <v>52</v>
       </c>
       <c r="B42" s="10">
-        <v>26998</v>
+        <v>25815</v>
       </c>
       <c r="C42" s="10">
-        <v>27806</v>
+        <v>26947</v>
       </c>
       <c r="D42" s="11">
-        <v>-2.9000000000000001E-2</v>
+        <v>-4.2000000000000003E-2</v>
       </c>
       <c r="E42" s="10">
-        <v>22950</v>
+        <v>21732</v>
       </c>
       <c r="F42" s="10">
-        <v>23499</v>
+        <v>22548</v>
       </c>
       <c r="G42" s="10">
-        <v>3365</v>
+        <v>3345</v>
       </c>
       <c r="H42" s="10">
-        <v>3568</v>
+        <v>3643</v>
       </c>
       <c r="I42" s="10" t="s">
         <v>18</v>
       </c>
       <c r="J42" s="10">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K42" s="10">
-        <v>673</v>
+        <v>726</v>
       </c>
       <c r="L42" s="10">
-        <v>728</v>
+        <v>745</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -2757,25 +2757,25 @@
         <v>53</v>
       </c>
       <c r="B43" s="13">
-        <v>10384</v>
+        <v>10683</v>
       </c>
       <c r="C43" s="13">
-        <v>12263</v>
+        <v>11685</v>
       </c>
       <c r="D43" s="14">
-        <v>-0.153</v>
+        <v>-8.5999999999999993E-2</v>
       </c>
       <c r="E43" s="13">
-        <v>6924</v>
+        <v>7287</v>
       </c>
       <c r="F43" s="13">
-        <v>8649</v>
+        <v>8379</v>
       </c>
       <c r="G43" s="13">
-        <v>3166</v>
+        <v>3056</v>
       </c>
       <c r="H43" s="13">
-        <v>3280</v>
+        <v>2966</v>
       </c>
       <c r="I43" s="13">
         <v>0</v>
@@ -2784,10 +2784,10 @@
         <v>0</v>
       </c>
       <c r="K43" s="13">
-        <v>295</v>
+        <v>340</v>
       </c>
       <c r="L43" s="13">
-        <v>334</v>
+        <v>339</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -2795,25 +2795,25 @@
         <v>54</v>
       </c>
       <c r="B44" s="13">
-        <v>6174</v>
+        <v>5435</v>
       </c>
       <c r="C44" s="13">
-        <v>6044</v>
+        <v>5297</v>
       </c>
       <c r="D44" s="14">
-        <v>2.1999999999999999E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="E44" s="13">
-        <v>6130</v>
+        <v>5364</v>
       </c>
       <c r="F44" s="13">
-        <v>5919</v>
-      </c>
-      <c r="G44" s="13" t="s">
-        <v>18</v>
+        <v>5236</v>
+      </c>
+      <c r="G44" s="13">
+        <v>20</v>
       </c>
       <c r="H44" s="13">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="I44" s="13">
         <v>0</v>
@@ -2822,10 +2822,10 @@
         <v>0</v>
       </c>
       <c r="K44" s="13">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="L44" s="13">
-        <v>46</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -2833,37 +2833,37 @@
         <v>55</v>
       </c>
       <c r="B45" s="13">
-        <v>4131</v>
+        <v>3424</v>
       </c>
       <c r="C45" s="13">
-        <v>4490</v>
+        <v>4987</v>
       </c>
       <c r="D45" s="14">
-        <v>-0.08</v>
+        <v>-0.314</v>
       </c>
       <c r="E45" s="13">
-        <v>3790</v>
+        <v>3012</v>
       </c>
       <c r="F45" s="13">
-        <v>4131</v>
+        <v>4164</v>
       </c>
       <c r="G45" s="13">
-        <v>177</v>
+        <v>254</v>
       </c>
       <c r="H45" s="13">
-        <v>194</v>
+        <v>657</v>
       </c>
       <c r="I45" s="13" t="s">
         <v>18</v>
       </c>
       <c r="J45" s="13">
-        <v>0.47</v>
+        <v>1</v>
       </c>
       <c r="K45" s="13">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="L45" s="13">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -2871,37 +2871,37 @@
         <v>56</v>
       </c>
       <c r="B46" s="13">
-        <v>6308</v>
+        <v>6273</v>
       </c>
       <c r="C46" s="13">
-        <v>5010</v>
+        <v>4978</v>
       </c>
       <c r="D46" s="14">
-        <v>0.25900000000000001</v>
+        <v>0.26</v>
       </c>
       <c r="E46" s="13">
-        <v>6106</v>
+        <v>6068</v>
       </c>
       <c r="F46" s="13">
-        <v>4800</v>
+        <v>4769</v>
       </c>
       <c r="G46" s="13">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H46" s="13">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I46" s="13" t="s">
         <v>18</v>
       </c>
       <c r="J46" s="13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K46" s="13">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L46" s="13">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -2909,37 +2909,37 @@
         <v>57</v>
       </c>
       <c r="B47" s="10">
-        <v>56331</v>
+        <v>50684</v>
       </c>
       <c r="C47" s="10">
-        <v>52715</v>
+        <v>48974</v>
       </c>
       <c r="D47" s="11">
-        <v>6.9000000000000006E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="E47" s="10">
-        <v>18107</v>
+        <v>15586</v>
       </c>
       <c r="F47" s="10">
-        <v>17837</v>
+        <v>15399</v>
       </c>
       <c r="G47" s="10">
-        <v>31714</v>
+        <v>28431</v>
       </c>
       <c r="H47" s="10">
-        <v>28754</v>
+        <v>27168</v>
       </c>
       <c r="I47" s="10">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J47" s="10">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="K47" s="10">
-        <v>6420</v>
+        <v>6589</v>
       </c>
       <c r="L47" s="10">
-        <v>6060</v>
+        <v>6351</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -2947,37 +2947,37 @@
         <v>58</v>
       </c>
       <c r="B48" s="13">
-        <v>4036</v>
+        <v>4018</v>
       </c>
       <c r="C48" s="13">
-        <v>3121</v>
+        <v>3089</v>
       </c>
       <c r="D48" s="14">
-        <v>0.29299999999999998</v>
+        <v>0.30099999999999999</v>
       </c>
       <c r="E48" s="13">
-        <v>2750</v>
+        <v>2587</v>
       </c>
       <c r="F48" s="13">
-        <v>2385</v>
+        <v>2189</v>
       </c>
       <c r="G48" s="13">
-        <v>1148</v>
+        <v>1287</v>
       </c>
       <c r="H48" s="13">
-        <v>590</v>
+        <v>745</v>
       </c>
       <c r="I48" s="13" t="s">
         <v>18</v>
       </c>
       <c r="J48" s="13">
-        <v>0.37</v>
+        <v>0.45</v>
       </c>
       <c r="K48" s="13">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="L48" s="13">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -2985,37 +2985,37 @@
         <v>59</v>
       </c>
       <c r="B49" s="13">
-        <v>7694</v>
+        <v>7805</v>
       </c>
       <c r="C49" s="13">
-        <v>8947</v>
+        <v>8027</v>
       </c>
       <c r="D49" s="14">
-        <v>-0.14000000000000001</v>
+        <v>-2.8000000000000001E-2</v>
       </c>
       <c r="E49" s="13">
-        <v>4387</v>
+        <v>4541</v>
       </c>
       <c r="F49" s="13">
-        <v>5490</v>
+        <v>4455</v>
       </c>
       <c r="G49" s="13">
-        <v>700</v>
+        <v>626</v>
       </c>
       <c r="H49" s="13">
-        <v>841</v>
+        <v>822</v>
       </c>
       <c r="I49" s="13" t="s">
         <v>18</v>
       </c>
       <c r="J49" s="13">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K49" s="13">
-        <v>2594</v>
+        <v>2624</v>
       </c>
       <c r="L49" s="13">
-        <v>2600</v>
+        <v>2735</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -3023,25 +3023,25 @@
         <v>60</v>
       </c>
       <c r="B50" s="13">
-        <v>6922</v>
+        <v>6049</v>
       </c>
       <c r="C50" s="13">
-        <v>5497</v>
+        <v>6048</v>
       </c>
       <c r="D50" s="14">
-        <v>0.25900000000000001</v>
+        <v>0</v>
       </c>
       <c r="E50" s="13">
-        <v>3914</v>
+        <v>3284</v>
       </c>
       <c r="F50" s="13">
-        <v>3505</v>
+        <v>3401</v>
       </c>
       <c r="G50" s="13">
-        <v>2931</v>
+        <v>2702</v>
       </c>
       <c r="H50" s="13">
-        <v>1916</v>
+        <v>2569</v>
       </c>
       <c r="I50" s="13" t="s">
         <v>18</v>
@@ -3050,10 +3050,10 @@
         <v>0</v>
       </c>
       <c r="K50" s="13">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="L50" s="13">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -3061,37 +3061,37 @@
         <v>61</v>
       </c>
       <c r="B51" s="13">
-        <v>37679</v>
+        <v>32813</v>
       </c>
       <c r="C51" s="13">
-        <v>35151</v>
+        <v>31811</v>
       </c>
       <c r="D51" s="14">
-        <v>7.1999999999999995E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="E51" s="13">
-        <v>7055</v>
+        <v>5174</v>
       </c>
       <c r="F51" s="13">
-        <v>6457</v>
+        <v>5355</v>
       </c>
       <c r="G51" s="13">
-        <v>26935</v>
+        <v>23816</v>
       </c>
       <c r="H51" s="13">
-        <v>25407</v>
+        <v>23033</v>
       </c>
       <c r="I51" s="13">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="J51" s="13">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="K51" s="13">
-        <v>3614</v>
+        <v>3759</v>
       </c>
       <c r="L51" s="13">
-        <v>3238</v>
+        <v>3383</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -3099,37 +3099,37 @@
         <v>62</v>
       </c>
       <c r="B52" s="10">
-        <v>29411</v>
+        <v>27577</v>
       </c>
       <c r="C52" s="10">
-        <v>30030</v>
+        <v>28155</v>
       </c>
       <c r="D52" s="11">
         <v>-2.1000000000000001E-2</v>
       </c>
       <c r="E52" s="10">
-        <v>22221</v>
+        <v>21557</v>
       </c>
       <c r="F52" s="10">
-        <v>23642</v>
+        <v>21835</v>
       </c>
       <c r="G52" s="10">
-        <v>6862</v>
+        <v>5742</v>
       </c>
       <c r="H52" s="10">
-        <v>6030</v>
+        <v>6011</v>
       </c>
       <c r="I52" s="10">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J52" s="10">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K52" s="10">
-        <v>284</v>
+        <v>236</v>
       </c>
       <c r="L52" s="10">
-        <v>311</v>
+        <v>266</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -3137,31 +3137,31 @@
         <v>63</v>
       </c>
       <c r="B53" s="13">
-        <v>8708</v>
+        <v>7075</v>
       </c>
       <c r="C53" s="13">
-        <v>9504</v>
+        <v>7957</v>
       </c>
       <c r="D53" s="14">
-        <v>-8.4000000000000005E-2</v>
+        <v>-0.111</v>
       </c>
       <c r="E53" s="13">
-        <v>6903</v>
+        <v>6177</v>
       </c>
       <c r="F53" s="13">
-        <v>7924</v>
+        <v>6685</v>
       </c>
       <c r="G53" s="13">
-        <v>1792</v>
+        <v>886</v>
       </c>
       <c r="H53" s="13">
-        <v>1565</v>
+        <v>1261</v>
       </c>
       <c r="I53" s="13">
         <v>12</v>
       </c>
       <c r="J53" s="13">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K53" s="13">
         <v>0</v>
@@ -3175,25 +3175,25 @@
         <v>64</v>
       </c>
       <c r="B54" s="13">
-        <v>4099</v>
+        <v>4332</v>
       </c>
       <c r="C54" s="13">
-        <v>3968</v>
+        <v>4141</v>
       </c>
       <c r="D54" s="14">
-        <v>3.3000000000000002E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="E54" s="13">
-        <v>3113</v>
+        <v>3230</v>
       </c>
       <c r="F54" s="13">
-        <v>3077</v>
+        <v>3296</v>
       </c>
       <c r="G54" s="13">
-        <v>977</v>
+        <v>1095</v>
       </c>
       <c r="H54" s="13">
-        <v>882</v>
+        <v>837</v>
       </c>
       <c r="I54" s="13" t="s">
         <v>18</v>
@@ -3205,7 +3205,7 @@
         <v>18</v>
       </c>
       <c r="L54" s="13">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -3213,25 +3213,25 @@
         <v>65</v>
       </c>
       <c r="B55" s="13">
-        <v>968</v>
+        <v>1003</v>
       </c>
       <c r="C55" s="13">
-        <v>1000</v>
+        <v>1020</v>
       </c>
       <c r="D55" s="14">
-        <v>-3.2000000000000001E-2</v>
+        <v>-1.6E-2</v>
       </c>
       <c r="E55" s="13">
-        <v>550</v>
+        <v>586</v>
       </c>
       <c r="F55" s="13">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="G55" s="13">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="H55" s="13">
-        <v>418</v>
+        <v>446</v>
       </c>
       <c r="I55" s="13" t="s">
         <v>18</v>
@@ -3240,10 +3240,10 @@
         <v>3</v>
       </c>
       <c r="K55" s="13">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L55" s="13">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -3251,25 +3251,25 @@
         <v>66</v>
       </c>
       <c r="B56" s="13">
-        <v>2293</v>
+        <v>2708</v>
       </c>
       <c r="C56" s="13">
-        <v>2317</v>
+        <v>2402</v>
       </c>
       <c r="D56" s="14">
-        <v>-0.01</v>
+        <v>0.128</v>
       </c>
       <c r="E56" s="13">
-        <v>692</v>
+        <v>1121</v>
       </c>
       <c r="F56" s="13">
-        <v>579</v>
+        <v>693</v>
       </c>
       <c r="G56" s="13">
-        <v>1599</v>
+        <v>1584</v>
       </c>
       <c r="H56" s="13">
-        <v>1735</v>
+        <v>1706</v>
       </c>
       <c r="I56" s="13">
         <v>0</v>
@@ -3281,7 +3281,7 @@
         <v>18</v>
       </c>
       <c r="L56" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -3289,37 +3289,37 @@
         <v>67</v>
       </c>
       <c r="B57" s="13">
-        <v>2930</v>
+        <v>2957</v>
       </c>
       <c r="C57" s="13">
-        <v>3309</v>
+        <v>2973</v>
       </c>
       <c r="D57" s="14">
-        <v>-0.114</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
       <c r="E57" s="13">
-        <v>2077</v>
+        <v>2148</v>
       </c>
       <c r="F57" s="13">
-        <v>2603</v>
+        <v>2216</v>
       </c>
       <c r="G57" s="13">
-        <v>815</v>
+        <v>778</v>
       </c>
       <c r="H57" s="13">
-        <v>668</v>
+        <v>725</v>
       </c>
       <c r="I57" s="13">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J57" s="13">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K57" s="13">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L57" s="13">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -3327,37 +3327,37 @@
         <v>68</v>
       </c>
       <c r="B58" s="13">
-        <v>3318</v>
+        <v>2837</v>
       </c>
       <c r="C58" s="13">
-        <v>2659</v>
+        <v>2759</v>
       </c>
       <c r="D58" s="14">
-        <v>0.248</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="E58" s="13">
-        <v>2569</v>
+        <v>2312</v>
       </c>
       <c r="F58" s="13">
-        <v>2189</v>
+        <v>2129</v>
       </c>
       <c r="G58" s="13">
-        <v>737</v>
+        <v>516</v>
       </c>
       <c r="H58" s="13">
-        <v>460</v>
+        <v>621</v>
       </c>
       <c r="I58" s="13">
         <v>10</v>
       </c>
       <c r="J58" s="13">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K58" s="13" t="s">
         <v>18</v>
       </c>
       <c r="L58" s="13">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -3365,37 +3365,37 @@
         <v>69</v>
       </c>
       <c r="B59" s="13">
-        <v>3368</v>
+        <v>3012</v>
       </c>
       <c r="C59" s="13">
-        <v>3326</v>
+        <v>2831</v>
       </c>
       <c r="D59" s="14">
-        <v>1.2999999999999999E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="E59" s="13">
-        <v>2967</v>
+        <v>2706</v>
       </c>
       <c r="F59" s="13">
-        <v>3134</v>
+        <v>2651</v>
       </c>
       <c r="G59" s="13">
-        <v>294</v>
+        <v>248</v>
       </c>
       <c r="H59" s="13">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="I59" s="13">
         <v>7</v>
       </c>
       <c r="J59" s="13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K59" s="13">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="L59" s="13">
-        <v>92</v>
+        <v>52</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -3403,25 +3403,25 @@
         <v>70</v>
       </c>
       <c r="B60" s="13">
-        <v>3728</v>
+        <v>3653</v>
       </c>
       <c r="C60" s="13">
-        <v>3948</v>
+        <v>4071</v>
       </c>
       <c r="D60" s="14">
-        <v>-5.6000000000000001E-2</v>
+        <v>-0.10299999999999999</v>
       </c>
       <c r="E60" s="13">
-        <v>3349</v>
+        <v>3275</v>
       </c>
       <c r="F60" s="13">
-        <v>3613</v>
+        <v>3649</v>
       </c>
       <c r="G60" s="13">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="H60" s="13">
-        <v>210</v>
+        <v>293</v>
       </c>
       <c r="I60" s="13">
         <v>0</v>
@@ -3430,10 +3430,10 @@
         <v>0</v>
       </c>
       <c r="K60" s="13">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L60" s="13">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -3441,37 +3441,37 @@
         <v>71</v>
       </c>
       <c r="B61" s="10">
-        <v>29020</v>
+        <v>27634</v>
       </c>
       <c r="C61" s="10">
-        <v>30010</v>
+        <v>28181</v>
       </c>
       <c r="D61" s="11">
-        <v>-3.3000000000000002E-2</v>
+        <v>-1.9E-2</v>
       </c>
       <c r="E61" s="10">
-        <v>16492</v>
+        <v>16881</v>
       </c>
       <c r="F61" s="10">
-        <v>15021</v>
+        <v>15978</v>
       </c>
       <c r="G61" s="10">
-        <v>11020</v>
+        <v>9216</v>
       </c>
       <c r="H61" s="10">
-        <v>13224</v>
+        <v>10555</v>
       </c>
       <c r="I61" s="10">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="J61" s="10">
-        <v>278</v>
+        <v>233</v>
       </c>
       <c r="K61" s="10">
-        <v>1275</v>
+        <v>1308</v>
       </c>
       <c r="L61" s="10">
-        <v>1487</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -3479,37 +3479,37 @@
         <v>72</v>
       </c>
       <c r="B62" s="13">
-        <v>16773</v>
+        <v>14306</v>
       </c>
       <c r="C62" s="13">
-        <v>17230</v>
+        <v>14126</v>
       </c>
       <c r="D62" s="14">
-        <v>-2.7E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="E62" s="13">
-        <v>6548</v>
+        <v>5605</v>
       </c>
       <c r="F62" s="13">
-        <v>5404</v>
+        <v>5023</v>
       </c>
       <c r="G62" s="13">
-        <v>8899</v>
+        <v>7353</v>
       </c>
       <c r="H62" s="13">
-        <v>10262</v>
+        <v>7656</v>
       </c>
       <c r="I62" s="13">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="J62" s="13">
-        <v>267</v>
+        <v>222</v>
       </c>
       <c r="K62" s="13">
-        <v>1102</v>
+        <v>1130</v>
       </c>
       <c r="L62" s="13">
-        <v>1298</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -3517,37 +3517,37 @@
         <v>73</v>
       </c>
       <c r="B63" s="13">
-        <v>4175</v>
+        <v>4458</v>
       </c>
       <c r="C63" s="13">
-        <v>4518</v>
+        <v>5105</v>
       </c>
       <c r="D63" s="14">
-        <v>-7.5999999999999998E-2</v>
+        <v>-0.127</v>
       </c>
       <c r="E63" s="13">
-        <v>3214</v>
+        <v>3446</v>
       </c>
       <c r="F63" s="13">
-        <v>3115</v>
+        <v>3559</v>
       </c>
       <c r="G63" s="13">
-        <v>913</v>
+        <v>959</v>
       </c>
       <c r="H63" s="13">
-        <v>1340</v>
+        <v>1481</v>
       </c>
       <c r="I63" s="13" t="s">
         <v>18</v>
       </c>
       <c r="J63" s="13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K63" s="13">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="L63" s="13">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -3555,34 +3555,34 @@
         <v>74</v>
       </c>
       <c r="B64" s="13">
-        <v>8072</v>
+        <v>8869</v>
       </c>
       <c r="C64" s="13">
-        <v>8262</v>
+        <v>8950</v>
       </c>
       <c r="D64" s="14">
-        <v>-2.3E-2</v>
+        <v>-8.9999999999999993E-3</v>
       </c>
       <c r="E64" s="13">
-        <v>6730</v>
+        <v>7831</v>
       </c>
       <c r="F64" s="13">
-        <v>6503</v>
+        <v>7396</v>
       </c>
       <c r="G64" s="13">
-        <v>1208</v>
+        <v>904</v>
       </c>
       <c r="H64" s="13">
-        <v>1622</v>
+        <v>1418</v>
       </c>
       <c r="I64" s="13" t="s">
         <v>18</v>
       </c>
       <c r="J64" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K64" s="13">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L64" s="13">
         <v>133</v>
@@ -3593,37 +3593,37 @@
         <v>75</v>
       </c>
       <c r="B65" s="10">
-        <v>1281</v>
+        <v>1248</v>
       </c>
       <c r="C65" s="10">
-        <v>1394</v>
+        <v>1429</v>
       </c>
       <c r="D65" s="11">
-        <v>-8.1000000000000003E-2</v>
+        <v>-0.126</v>
       </c>
       <c r="E65" s="10">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="F65" s="10">
-        <v>932</v>
+        <v>963</v>
       </c>
       <c r="G65" s="10">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="H65" s="10">
         <v>375</v>
       </c>
       <c r="I65" s="10">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="J65" s="10">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="K65" s="10">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="L65" s="10">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -3631,25 +3631,25 @@
         <v>76</v>
       </c>
       <c r="B66" s="13">
-        <v>422</v>
+        <v>453</v>
       </c>
       <c r="C66" s="13">
-        <v>490</v>
+        <v>555</v>
       </c>
       <c r="D66" s="14">
-        <v>-0.13900000000000001</v>
+        <v>-0.184</v>
       </c>
       <c r="E66" s="13">
-        <v>389</v>
+        <v>414</v>
       </c>
       <c r="F66" s="13">
-        <v>444</v>
-      </c>
-      <c r="G66" s="13" t="s">
-        <v>18</v>
+        <v>508</v>
+      </c>
+      <c r="G66" s="13">
+        <v>15</v>
       </c>
       <c r="H66" s="13">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I66" s="13">
         <v>13</v>
@@ -3669,37 +3669,37 @@
         <v>77</v>
       </c>
       <c r="B67" s="13">
-        <v>859</v>
+        <v>796</v>
       </c>
       <c r="C67" s="13">
-        <v>904</v>
+        <v>874</v>
       </c>
       <c r="D67" s="14">
-        <v>-4.9000000000000002E-2</v>
+        <v>-8.8999999999999996E-2</v>
       </c>
       <c r="E67" s="13">
-        <v>405</v>
+        <v>384</v>
       </c>
       <c r="F67" s="13">
-        <v>488</v>
+        <v>455</v>
       </c>
       <c r="G67" s="13">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="H67" s="13">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I67" s="13">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="J67" s="13">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K67" s="13">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="L67" s="13">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -3707,37 +3707,37 @@
         <v>78</v>
       </c>
       <c r="B68" s="10">
-        <v>312788</v>
+        <v>297422</v>
       </c>
       <c r="C68" s="10">
-        <v>312112</v>
+        <v>300653</v>
       </c>
       <c r="D68" s="11">
-        <v>2E-3</v>
+        <v>-1.0999999999999999E-2</v>
       </c>
       <c r="E68" s="10">
-        <v>170993</v>
+        <v>164111</v>
       </c>
       <c r="F68" s="10">
-        <v>172561</v>
+        <v>165247</v>
       </c>
       <c r="G68" s="10">
-        <v>129109</v>
+        <v>120368</v>
       </c>
       <c r="H68" s="10">
-        <v>126607</v>
+        <v>122304</v>
       </c>
       <c r="I68" s="10">
-        <v>968</v>
+        <v>960</v>
       </c>
       <c r="J68" s="10">
-        <v>1049</v>
+        <v>992</v>
       </c>
       <c r="K68" s="10">
-        <v>11719</v>
+        <v>11983</v>
       </c>
       <c r="L68" s="10">
-        <v>11894</v>
+        <v>12110</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="135" customHeight="1" x14ac:dyDescent="0.25">
